--- a/Księgowość/Plan.xlsx
+++ b/Księgowość/Plan.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +418,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,9 +455,14 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>243</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <f>MAX(D2:E2)</f>
+        <v>243</v>
+      </c>
       <c r="G2" s="4">
         <v>200</v>
       </c>
@@ -471,9 +477,16 @@
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4">
+        <v>406</v>
+      </c>
+      <c r="E3" s="4">
+        <v>813</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F6" si="0">MAX(D3:E3)</f>
+        <v>813</v>
+      </c>
       <c r="G3" s="4">
         <v>800</v>
       </c>
@@ -490,7 +503,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G4" s="4">
         <v>3200</v>
       </c>
@@ -507,7 +523,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="4">
         <v>12800</v>
       </c>
@@ -524,7 +543,10 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="4">
         <v>49000</v>
       </c>
